--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>Learning Journals</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Total Waiting</t>
+  </si>
+  <si>
+    <t>Lowest Grade</t>
+  </si>
+  <si>
+    <t>Highest Loss</t>
   </si>
 </sst>
 </file>
@@ -130,12 +136,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +449,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +533,13 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -538,6 +554,13 @@
       <c r="D5" s="1">
         <v>0.4</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -834,6 +857,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -103,11 +103,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,21 +142,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -449,13 +466,13 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -496,14 +513,14 @@
       <c r="D2" s="4">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="F2" s="2">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>9.375E-2</v>
+      <c r="F2" s="6">
+        <v>0.14156250000000001</v>
+      </c>
+      <c r="G2" s="6">
+        <v>6.4687499999999995E-2</v>
       </c>
       <c r="H2" s="4">
-        <v>0.81874999999999998</v>
+        <v>0.79374999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -533,10 +550,10 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1">
         <v>0.73</v>
       </c>
@@ -554,10 +571,10 @@
       <c r="D5" s="1">
         <v>0.4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="1">
         <v>0.27</v>
       </c>
@@ -581,10 +598,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6.2500000000000003E-3</v>
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6.2500000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -592,10 +612,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -617,14 +640,12 @@
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.25E-3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -667,29 +688,38 @@
         <v>6</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4">
-        <v>6.2500000000000003E-3</v>
+        <v>0.95</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5.9375000000000001E-3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.1250000000000001E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5.5E-2</v>
+      <c r="B19" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>Learning Journals</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Highest Loss</t>
+  </si>
+  <si>
+    <t>Absolute Minimum</t>
   </si>
 </sst>
 </file>
@@ -155,12 +158,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +469,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +539,13 @@
       <c r="D3" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="1">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -550,10 +560,10 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="1">
         <v>0.73</v>
       </c>
@@ -571,10 +581,10 @@
       <c r="D5" s="1">
         <v>0.4</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="1">
         <v>0.27</v>
       </c>
@@ -617,7 +627,7 @@
       <c r="C9" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
@@ -701,10 +711,10 @@
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -887,9 +897,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -24,9 +24,6 @@
     <t>Discussion Assignments</t>
   </si>
   <si>
-    <t>Assignments</t>
-  </si>
-  <si>
     <t>Graded Quizzes</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Absolute Minimum</t>
+  </si>
+  <si>
+    <t>Written Assignments</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,13 +494,13 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -540,7 +540,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="1">
@@ -549,7 +549,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="1">
@@ -570,7 +570,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>0.4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="1">
@@ -591,21 +591,21 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>0.9</v>
@@ -633,21 +633,21 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
         <v>2.5000000000000001E-2</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <v>1.2500000000000001E-2</v>
@@ -681,21 +681,21 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
         <v>0.95</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
         <v>0.8125</v>
@@ -734,166 +734,166 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>20</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -149,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,6 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +470,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,13 +518,13 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F2" s="6">
-        <v>0.14156250000000001</v>
+        <v>0.14656250000000001</v>
       </c>
       <c r="G2" s="6">
-        <v>6.4687499999999995E-2</v>
+        <v>6.5937499999999996E-2</v>
       </c>
       <c r="H2" s="4">
-        <v>0.79374999999999996</v>
+        <v>0.78749999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,16 +751,31 @@
       <c r="A22" t="s">
         <v>5</v>
       </c>
+      <c r="B22" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1.25E-3</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">

--- a/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science (40x Subjects R80000) 0%/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -161,10 +161,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,13 +518,13 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F2" s="6">
-        <v>0.14656250000000001</v>
+        <v>0.1690625</v>
       </c>
       <c r="G2" s="6">
-        <v>6.5937499999999996E-2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.78749999999999998</v>
+        <v>6.8437499999999998E-2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.76249999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -540,10 +540,10 @@
       <c r="D3" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="1">
         <v>0.64</v>
       </c>
@@ -561,10 +561,10 @@
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="1">
         <v>0.73</v>
       </c>
@@ -582,10 +582,10 @@
       <c r="D5" s="1">
         <v>0.4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1">
         <v>0.27</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="C22" s="9">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>1.25E-3</v>
       </c>
     </row>
@@ -765,9 +765,15 @@
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
